--- a/Excel/mappe.xlsx
+++ b/Excel/mappe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Interne Projekte\Lurse Administration Services\Austausch Infos etc\PDF umbenennen - achtung echte Daten!\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephane Tchonlafi\PycharmProjects\PDFumbenennung2.0\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24E6BA7-1221-49F7-9D5E-28BC1835C7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138DF272-2DA6-401B-A7A3-A658D58D60D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11325" yWindow="5940" windowWidth="21600" windowHeight="11385" xr2:uid="{D32E1DB1-FE0B-45B9-AF4F-9C49DCC6F8A5}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15345" xr2:uid="{D32E1DB1-FE0B-45B9-AF4F-9C49DCC6F8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Personalnummer</t>
   </si>
@@ -63,13 +63,19 @@
   </si>
   <si>
     <t>Martin</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>Andre Denis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +91,308 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -102,17 +400,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0196CBD-BEF3-4C29-8FD8-33989BD741CC}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +981,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>152819</v>
+      </c>
+      <c r="B5" s="4">
+        <v>680574700191</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Excel/mappe.xlsx
+++ b/Excel/mappe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephane Tchonlafi\PycharmProjects\PDFumbenennung2.0\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erme4\Desktop\PDFumbenennung2.0\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138DF272-2DA6-401B-A7A3-A658D58D60D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DDE755-0014-4246-82FA-884085EEEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15345" xr2:uid="{D32E1DB1-FE0B-45B9-AF4F-9C49DCC6F8A5}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{D32E1DB1-FE0B-45B9-AF4F-9C49DCC6F8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,10 +63,10 @@
     <t>Martin</t>
   </si>
   <si>
-    <t>Beck</t>
-  </si>
-  <si>
-    <t>Andre Denis</t>
+    <t>Denis Beck</t>
+  </si>
+  <si>
+    <t>Andre</t>
   </si>
 </sst>
 </file>
@@ -560,48 +558,48 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Açıklama Metni" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Ana Başlık" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Bağlı Hücre" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Başlık 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Başlık 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Başlık 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Başlık 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Çıkış" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Giriş" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hesaplama" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="İşaretli Hücre" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="İyi" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Kötü" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Not" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Nötr" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Toplam" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uyarı Metni" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vurgu1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Vurgu2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Vurgu3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Vurgu4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Vurgu5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Vurgu6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,7 +615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -916,16 +914,16 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>123</v>
       </c>
@@ -953,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>456</v>
       </c>
@@ -967,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>789</v>
       </c>
@@ -981,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>152819</v>
       </c>
